--- a/data/pca/factorExposure/factorExposure_2016-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01021296230723544</v>
+        <v>0.01313430860618381</v>
       </c>
       <c r="C2">
-        <v>0.05598561105980799</v>
+        <v>0.03912061563702027</v>
       </c>
       <c r="D2">
-        <v>-0.03991216261887066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05371912379281954</v>
+      </c>
+      <c r="E2">
+        <v>0.08813087256256487</v>
+      </c>
+      <c r="F2">
+        <v>-0.08562353114624162</v>
+      </c>
+      <c r="G2">
+        <v>-0.006109632042468379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04104060158645611</v>
+        <v>0.02589075267980191</v>
       </c>
       <c r="C3">
-        <v>0.1193007089895259</v>
+        <v>0.06763845774304569</v>
       </c>
       <c r="D3">
-        <v>-0.08806076131840923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07280009019904272</v>
+      </c>
+      <c r="E3">
+        <v>0.06690270164926936</v>
+      </c>
+      <c r="F3">
+        <v>0.02433652700489629</v>
+      </c>
+      <c r="G3">
+        <v>-0.04096680422570628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.059726352326727</v>
+        <v>0.0583868353124434</v>
       </c>
       <c r="C4">
-        <v>0.06134654465346935</v>
+        <v>0.06395179347940518</v>
       </c>
       <c r="D4">
-        <v>-0.02641223571238526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0486114833245562</v>
+      </c>
+      <c r="E4">
+        <v>0.08538933355288914</v>
+      </c>
+      <c r="F4">
+        <v>-0.06015346011334748</v>
+      </c>
+      <c r="G4">
+        <v>-0.0790963365452404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03986392687489238</v>
+        <v>0.03523335029022201</v>
       </c>
       <c r="C6">
-        <v>0.03641403639591075</v>
+        <v>0.0281138056870973</v>
       </c>
       <c r="D6">
-        <v>-0.03076014344750856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05766467432863356</v>
+      </c>
+      <c r="E6">
+        <v>0.08886255059793789</v>
+      </c>
+      <c r="F6">
+        <v>-0.04374063912677966</v>
+      </c>
+      <c r="G6">
+        <v>-0.06172915156749041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02258598626620274</v>
+        <v>0.01819041034163137</v>
       </c>
       <c r="C7">
-        <v>0.04574189882932768</v>
+        <v>0.03897751667080269</v>
       </c>
       <c r="D7">
-        <v>0.01049780404784925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03133660518017032</v>
+      </c>
+      <c r="E7">
+        <v>0.06199077916517563</v>
+      </c>
+      <c r="F7">
+        <v>-0.08987419812039336</v>
+      </c>
+      <c r="G7">
+        <v>-0.07237666685491319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005769973593681842</v>
+        <v>0.003280161402932213</v>
       </c>
       <c r="C8">
-        <v>0.03648559601057599</v>
+        <v>0.03265228174306774</v>
       </c>
       <c r="D8">
-        <v>-0.02547960549672513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02952080731226422</v>
+      </c>
+      <c r="E8">
+        <v>0.05845085531941007</v>
+      </c>
+      <c r="F8">
+        <v>-0.02785989464496303</v>
+      </c>
+      <c r="G8">
+        <v>-0.03247784548411529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03427100583472246</v>
+        <v>0.03784030191680485</v>
       </c>
       <c r="C9">
-        <v>0.04773900434754439</v>
+        <v>0.05100504697706412</v>
       </c>
       <c r="D9">
-        <v>-0.01104648018291449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03481135353849434</v>
+      </c>
+      <c r="E9">
+        <v>0.07195077795692588</v>
+      </c>
+      <c r="F9">
+        <v>-0.0701903920802477</v>
+      </c>
+      <c r="G9">
+        <v>-0.0694156673902426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07696650346626049</v>
+        <v>0.1011274422838843</v>
       </c>
       <c r="C10">
-        <v>-0.1868179494978892</v>
+        <v>-0.1958449684631714</v>
       </c>
       <c r="D10">
-        <v>0.01029106726372288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01447444256426238</v>
+      </c>
+      <c r="E10">
+        <v>0.03888188078250816</v>
+      </c>
+      <c r="F10">
+        <v>-0.02430798500926783</v>
+      </c>
+      <c r="G10">
+        <v>-0.02705917232367888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04232402655127909</v>
+        <v>0.03711484442493267</v>
       </c>
       <c r="C11">
-        <v>0.05051645892196884</v>
+        <v>0.04751621580534578</v>
       </c>
       <c r="D11">
-        <v>-0.01079307304438576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02975383739307989</v>
+      </c>
+      <c r="E11">
+        <v>0.02544081482979688</v>
+      </c>
+      <c r="F11">
+        <v>-0.05393894427565106</v>
+      </c>
+      <c r="G11">
+        <v>-0.05489952380746373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04386786290527309</v>
+        <v>0.03884676028883453</v>
       </c>
       <c r="C12">
-        <v>0.04688782977403094</v>
+        <v>0.04536865086451407</v>
       </c>
       <c r="D12">
-        <v>-0.00135275046806778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02416453793907019</v>
+      </c>
+      <c r="E12">
+        <v>0.03312928275921066</v>
+      </c>
+      <c r="F12">
+        <v>-0.05630685725685418</v>
+      </c>
+      <c r="G12">
+        <v>-0.05181368445624485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01451832308267706</v>
+        <v>0.01132895487751028</v>
       </c>
       <c r="C13">
-        <v>0.05347380877168172</v>
+        <v>0.04201334630488999</v>
       </c>
       <c r="D13">
-        <v>-0.005804358739819509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04128535356937161</v>
+      </c>
+      <c r="E13">
+        <v>0.09644867443090072</v>
+      </c>
+      <c r="F13">
+        <v>-0.0790091456370621</v>
+      </c>
+      <c r="G13">
+        <v>-0.07791047461175069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007808072146623617</v>
+        <v>0.004405034141972944</v>
       </c>
       <c r="C14">
-        <v>0.04242713817146851</v>
+        <v>0.03367633101833221</v>
       </c>
       <c r="D14">
-        <v>0.01120208176458429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02178846483531253</v>
+      </c>
+      <c r="E14">
+        <v>0.04977142129947577</v>
+      </c>
+      <c r="F14">
+        <v>-0.090978343534839</v>
+      </c>
+      <c r="G14">
+        <v>-0.05733424467512878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002259266781358024</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005461225747414394</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006998568611238976</v>
+      </c>
+      <c r="E15">
+        <v>0.004541403381174287</v>
+      </c>
+      <c r="F15">
+        <v>-0.006599902548024096</v>
+      </c>
+      <c r="G15">
+        <v>-0.004784293563779882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03867664017793221</v>
+        <v>0.03456874952697687</v>
       </c>
       <c r="C16">
-        <v>0.04931208760850165</v>
+        <v>0.04471735210799208</v>
       </c>
       <c r="D16">
-        <v>-0.004973161814072763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02308997467092425</v>
+      </c>
+      <c r="E16">
+        <v>0.04006796512225042</v>
+      </c>
+      <c r="F16">
+        <v>-0.06090236116379084</v>
+      </c>
+      <c r="G16">
+        <v>-0.04100003148276963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02368654096917824</v>
+        <v>0.01754013217022517</v>
       </c>
       <c r="C19">
-        <v>0.06135652875999902</v>
+        <v>0.04440998446470951</v>
       </c>
       <c r="D19">
-        <v>-0.08847500805481001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08761488566004851</v>
+      </c>
+      <c r="E19">
+        <v>0.1136365629719144</v>
+      </c>
+      <c r="F19">
+        <v>-0.07219527853136404</v>
+      </c>
+      <c r="G19">
+        <v>-0.02533267395393345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01662041777060921</v>
+        <v>0.01315987720517712</v>
       </c>
       <c r="C20">
-        <v>0.04795329539865314</v>
+        <v>0.03913378480198092</v>
       </c>
       <c r="D20">
-        <v>-0.006903301620307081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02944614951104905</v>
+      </c>
+      <c r="E20">
+        <v>0.07645416725857135</v>
+      </c>
+      <c r="F20">
+        <v>-0.06509984887909896</v>
+      </c>
+      <c r="G20">
+        <v>-0.05307123843932848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01061624365824439</v>
+        <v>0.009512286103713546</v>
       </c>
       <c r="C21">
-        <v>0.0505348269619388</v>
+        <v>0.04137066377039759</v>
       </c>
       <c r="D21">
-        <v>-0.03677904352494477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05535991304126253</v>
+      </c>
+      <c r="E21">
+        <v>0.1190067943374731</v>
+      </c>
+      <c r="F21">
+        <v>-0.103753962360585</v>
+      </c>
+      <c r="G21">
+        <v>-0.07923326197515164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001351450505619523</v>
+        <v>0.002498992704443744</v>
       </c>
       <c r="C22">
-        <v>0.0009628026928025912</v>
+        <v>0.02700715717602272</v>
       </c>
       <c r="D22">
-        <v>-0.003127313928033985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0416544235430492</v>
+      </c>
+      <c r="E22">
+        <v>0.04178474530346912</v>
+      </c>
+      <c r="F22">
+        <v>0.001728320885690335</v>
+      </c>
+      <c r="G22">
+        <v>-0.05191714744619334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001357155986354892</v>
+        <v>0.002579244283172255</v>
       </c>
       <c r="C23">
-        <v>0.0009632494164589599</v>
+        <v>0.02715992459809969</v>
       </c>
       <c r="D23">
-        <v>-0.00313270845823843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04124118157159407</v>
+      </c>
+      <c r="E23">
+        <v>0.04203049382050924</v>
+      </c>
+      <c r="F23">
+        <v>0.001992362426934462</v>
+      </c>
+      <c r="G23">
+        <v>-0.05197590438228134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03600651253014159</v>
+        <v>0.03486515523037478</v>
       </c>
       <c r="C24">
-        <v>0.04998511530362548</v>
+        <v>0.05197579639695979</v>
       </c>
       <c r="D24">
-        <v>-0.006347263791241974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02281203853071943</v>
+      </c>
+      <c r="E24">
+        <v>0.04109079837559954</v>
+      </c>
+      <c r="F24">
+        <v>-0.06402971621055917</v>
+      </c>
+      <c r="G24">
+        <v>-0.05194898596436469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04887797854468352</v>
+        <v>0.04415335666379371</v>
       </c>
       <c r="C25">
-        <v>0.06070809339611401</v>
+        <v>0.05571440012675594</v>
       </c>
       <c r="D25">
-        <v>0.004502975451381839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02209671072376388</v>
+      </c>
+      <c r="E25">
+        <v>0.03089670790479193</v>
+      </c>
+      <c r="F25">
+        <v>-0.05826982271467403</v>
+      </c>
+      <c r="G25">
+        <v>-0.06709198005497581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0163600883392992</v>
+        <v>0.0149543904712104</v>
       </c>
       <c r="C26">
-        <v>0.01733121165347373</v>
+        <v>0.01740324901565512</v>
       </c>
       <c r="D26">
-        <v>-5.919285496286831e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02199095614400201</v>
+      </c>
+      <c r="E26">
+        <v>0.05033906899969607</v>
+      </c>
+      <c r="F26">
+        <v>-0.0662601843342764</v>
+      </c>
+      <c r="G26">
+        <v>-0.03064130728448416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09236411171217396</v>
+        <v>0.1368085774929493</v>
       </c>
       <c r="C28">
-        <v>-0.2461927854998814</v>
+        <v>-0.2523528721577188</v>
       </c>
       <c r="D28">
-        <v>0.007529287268991963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02807131319465436</v>
+      </c>
+      <c r="E28">
+        <v>0.05535828356983839</v>
+      </c>
+      <c r="F28">
+        <v>-0.03425207311720171</v>
+      </c>
+      <c r="G28">
+        <v>-0.04743579865514337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006680497281520796</v>
+        <v>0.005103264347780917</v>
       </c>
       <c r="C29">
-        <v>0.03437398065056123</v>
+        <v>0.02989469579017776</v>
       </c>
       <c r="D29">
-        <v>0.01626151425045434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01534841135213814</v>
+      </c>
+      <c r="E29">
+        <v>0.04760415862474117</v>
+      </c>
+      <c r="F29">
+        <v>-0.08057565532748796</v>
+      </c>
+      <c r="G29">
+        <v>-0.06562913268847392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04487369924797217</v>
+        <v>0.04104996333802083</v>
       </c>
       <c r="C30">
-        <v>0.05267742136556135</v>
+        <v>0.05618251679929909</v>
       </c>
       <c r="D30">
-        <v>-0.06763145519216429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09445033281321735</v>
+      </c>
+      <c r="E30">
+        <v>0.07892969527252534</v>
+      </c>
+      <c r="F30">
+        <v>-0.08477990620014751</v>
+      </c>
+      <c r="G30">
+        <v>-0.04231638999491279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05816676404596125</v>
+        <v>0.05712095865775434</v>
       </c>
       <c r="C31">
-        <v>0.04498862299738045</v>
+        <v>0.06127693937761896</v>
       </c>
       <c r="D31">
-        <v>0.03555336887206556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0165169520014551</v>
+      </c>
+      <c r="E31">
+        <v>0.0653829613135492</v>
+      </c>
+      <c r="F31">
+        <v>-0.04223063534257625</v>
+      </c>
+      <c r="G31">
+        <v>-0.079585011654592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001561871650668169</v>
+        <v>0.004334042400536456</v>
       </c>
       <c r="C32">
-        <v>0.04469215208554168</v>
+        <v>0.03527184059586801</v>
       </c>
       <c r="D32">
-        <v>-0.04749887120451208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05142233479933922</v>
+      </c>
+      <c r="E32">
+        <v>0.05844989962336485</v>
+      </c>
+      <c r="F32">
+        <v>-0.07252771317068511</v>
+      </c>
+      <c r="G32">
+        <v>-0.0346771392095148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03161085516466171</v>
+        <v>0.02644383143744046</v>
       </c>
       <c r="C33">
-        <v>0.0594007161932646</v>
+        <v>0.0531676294047444</v>
       </c>
       <c r="D33">
-        <v>-0.03843747753417873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0688209696234682</v>
+      </c>
+      <c r="E33">
+        <v>0.09046036072272355</v>
+      </c>
+      <c r="F33">
+        <v>-0.09133616471623461</v>
+      </c>
+      <c r="G33">
+        <v>-0.07992795163377828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04635228024393842</v>
+        <v>0.04138154958361283</v>
       </c>
       <c r="C34">
-        <v>0.06530121285153749</v>
+        <v>0.06347188495827187</v>
       </c>
       <c r="D34">
-        <v>-0.0142421491360727</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0358094599654988</v>
+      </c>
+      <c r="E34">
+        <v>0.01317338335298082</v>
+      </c>
+      <c r="F34">
+        <v>-0.0663425537283457</v>
+      </c>
+      <c r="G34">
+        <v>-0.05343547131167437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01650760076941487</v>
+        <v>0.01435461583660692</v>
       </c>
       <c r="C36">
-        <v>0.01698464759680134</v>
+        <v>0.01344389434397203</v>
       </c>
       <c r="D36">
-        <v>0.005091854233501902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02070839421559312</v>
+      </c>
+      <c r="E36">
+        <v>0.05807553217263509</v>
+      </c>
+      <c r="F36">
+        <v>-0.06053196095135509</v>
+      </c>
+      <c r="G36">
+        <v>-0.05077879929107133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03010819527923794</v>
+        <v>0.0232793308439494</v>
       </c>
       <c r="C38">
-        <v>0.03044003694156718</v>
+        <v>0.02350283894429296</v>
       </c>
       <c r="D38">
-        <v>0.01717969521009804</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01840337401661554</v>
+      </c>
+      <c r="E38">
+        <v>0.04999630136491333</v>
+      </c>
+      <c r="F38">
+        <v>-0.05043987227881683</v>
+      </c>
+      <c r="G38">
+        <v>-0.03487265867370586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04699638452418365</v>
+        <v>0.04062369430242725</v>
       </c>
       <c r="C39">
-        <v>0.06325336553991931</v>
+        <v>0.06282113620936197</v>
       </c>
       <c r="D39">
-        <v>-0.01464243886867982</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04663830314505903</v>
+      </c>
+      <c r="E39">
+        <v>0.04709752704527422</v>
+      </c>
+      <c r="F39">
+        <v>-0.08427498411285368</v>
+      </c>
+      <c r="G39">
+        <v>-0.04107608597599386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01253631287276437</v>
+        <v>0.01320227638218042</v>
       </c>
       <c r="C40">
-        <v>0.05250482023114281</v>
+        <v>0.03753088571902057</v>
       </c>
       <c r="D40">
-        <v>-0.010016792704595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02557928613947244</v>
+      </c>
+      <c r="E40">
+        <v>0.08314708555322269</v>
+      </c>
+      <c r="F40">
+        <v>-0.0551488284933353</v>
+      </c>
+      <c r="G40">
+        <v>-0.08907729744433851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0223189940821061</v>
+        <v>0.01896873335296721</v>
       </c>
       <c r="C41">
-        <v>0.01499651742399921</v>
+        <v>0.0107726966223977</v>
       </c>
       <c r="D41">
-        <v>0.0007352288847157553</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01414225703617039</v>
+      </c>
+      <c r="E41">
+        <v>0.05820380190450085</v>
+      </c>
+      <c r="F41">
+        <v>-0.05616548986546185</v>
+      </c>
+      <c r="G41">
+        <v>-0.04238181725424873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04062345042444345</v>
+        <v>0.02952301404685796</v>
       </c>
       <c r="C43">
-        <v>0.03330995115357975</v>
+        <v>0.02445190836980005</v>
       </c>
       <c r="D43">
-        <v>-0.02533115173736434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04079820966977354</v>
+      </c>
+      <c r="E43">
+        <v>0.07416285621447818</v>
+      </c>
+      <c r="F43">
+        <v>-0.05516498567403239</v>
+      </c>
+      <c r="G43">
+        <v>-0.0669659487048913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01392393149023338</v>
+        <v>0.01479353885320589</v>
       </c>
       <c r="C44">
-        <v>0.06702557985352804</v>
+        <v>0.04762839979426309</v>
       </c>
       <c r="D44">
-        <v>-0.005757113289575246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02960026742167526</v>
+      </c>
+      <c r="E44">
+        <v>0.08728930721622874</v>
+      </c>
+      <c r="F44">
+        <v>-0.06744998717105131</v>
+      </c>
+      <c r="G44">
+        <v>-0.03198082838862799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007848776707061508</v>
+        <v>0.008513249571485247</v>
       </c>
       <c r="C46">
-        <v>0.02966860304651416</v>
+        <v>0.02989138589302717</v>
       </c>
       <c r="D46">
-        <v>0.01768675634358803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009145373265917909</v>
+      </c>
+      <c r="E46">
+        <v>0.05667799998807418</v>
+      </c>
+      <c r="F46">
+        <v>-0.09262454530830339</v>
+      </c>
+      <c r="G46">
+        <v>-0.06331713291039388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0844329569979753</v>
+        <v>0.08876600677462941</v>
       </c>
       <c r="C47">
-        <v>0.07157496441089022</v>
+        <v>0.08153164960074438</v>
       </c>
       <c r="D47">
-        <v>0.03213060711824896</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02301454374596153</v>
+      </c>
+      <c r="E47">
+        <v>0.06755707203697041</v>
+      </c>
+      <c r="F47">
+        <v>-0.04137279100949179</v>
+      </c>
+      <c r="G47">
+        <v>-0.07780481180453183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01903160057785296</v>
+        <v>0.01702186449569924</v>
       </c>
       <c r="C48">
-        <v>0.01410734399012872</v>
+        <v>0.01573935136724202</v>
       </c>
       <c r="D48">
-        <v>0.0196255191484868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.008608574351958293</v>
+      </c>
+      <c r="E48">
+        <v>0.06769057191833702</v>
+      </c>
+      <c r="F48">
+        <v>-0.07745094384361911</v>
+      </c>
+      <c r="G48">
+        <v>-0.05885428895739553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08173508372220041</v>
+        <v>0.07104346736082075</v>
       </c>
       <c r="C50">
-        <v>0.08243126894513045</v>
+        <v>0.07565779492581858</v>
       </c>
       <c r="D50">
-        <v>0.03330689807038891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008442166528336684</v>
+      </c>
+      <c r="E50">
+        <v>0.07440885980987287</v>
+      </c>
+      <c r="F50">
+        <v>-0.01695652290684656</v>
+      </c>
+      <c r="G50">
+        <v>-0.09460950612958323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01547194185115751</v>
+        <v>0.009617872993708431</v>
       </c>
       <c r="C51">
-        <v>0.05034127391431583</v>
+        <v>0.03224598247419942</v>
       </c>
       <c r="D51">
-        <v>-0.03218013316462869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05067717442334278</v>
+      </c>
+      <c r="E51">
+        <v>0.04945160950325827</v>
+      </c>
+      <c r="F51">
+        <v>-0.07904349827458276</v>
+      </c>
+      <c r="G51">
+        <v>-0.03836881008984244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08398418676927316</v>
+        <v>0.09634190158682762</v>
       </c>
       <c r="C53">
-        <v>0.0754802025911078</v>
+        <v>0.08553469009213524</v>
       </c>
       <c r="D53">
-        <v>0.0532026101012476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05584639095196484</v>
+      </c>
+      <c r="E53">
+        <v>0.06099795641809359</v>
+      </c>
+      <c r="F53">
+        <v>-0.03793057708390431</v>
+      </c>
+      <c r="G53">
+        <v>-0.0789124373047652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03289220237492281</v>
+        <v>0.02724090736791812</v>
       </c>
       <c r="C54">
-        <v>0.03928245395773122</v>
+        <v>0.03342165407400289</v>
       </c>
       <c r="D54">
-        <v>0.003446617168053731</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02212357097973803</v>
+      </c>
+      <c r="E54">
+        <v>0.0561824171651464</v>
+      </c>
+      <c r="F54">
+        <v>-0.08623252684184464</v>
+      </c>
+      <c r="G54">
+        <v>-0.0644137127171342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07746443326657228</v>
+        <v>0.08773216922209705</v>
       </c>
       <c r="C55">
-        <v>0.0546850083117271</v>
+        <v>0.06809806420651222</v>
       </c>
       <c r="D55">
-        <v>0.05845581567841426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05839456113247779</v>
+      </c>
+      <c r="E55">
+        <v>0.04301084593142754</v>
+      </c>
+      <c r="F55">
+        <v>-0.02026549754015729</v>
+      </c>
+      <c r="G55">
+        <v>-0.06032046182142692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1487822250006658</v>
+        <v>0.1507753349164828</v>
       </c>
       <c r="C56">
-        <v>0.08990065471497799</v>
+        <v>0.1045895997195693</v>
       </c>
       <c r="D56">
-        <v>0.05168753070513913</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05510144170875721</v>
+      </c>
+      <c r="E56">
+        <v>0.0417321817121277</v>
+      </c>
+      <c r="F56">
+        <v>0.003407003333504812</v>
+      </c>
+      <c r="G56">
+        <v>-0.04101638972366088</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04317904730107475</v>
+        <v>0.02591737614080699</v>
       </c>
       <c r="C58">
-        <v>0.02739717213049514</v>
+        <v>0.02603738760666658</v>
       </c>
       <c r="D58">
-        <v>-0.667468736288841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3670636276854028</v>
+      </c>
+      <c r="E58">
+        <v>0.6637945699568569</v>
+      </c>
+      <c r="F58">
+        <v>0.4818149169229256</v>
+      </c>
+      <c r="G58">
+        <v>0.3360873281931829</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1309003155593707</v>
+        <v>0.1441569439179182</v>
       </c>
       <c r="C59">
-        <v>-0.198967573499908</v>
+        <v>-0.1889180398994097</v>
       </c>
       <c r="D59">
-        <v>-0.02490979773053323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02652622659620348</v>
+      </c>
+      <c r="E59">
+        <v>0.02868746127809604</v>
+      </c>
+      <c r="F59">
+        <v>-0.02598577425111009</v>
+      </c>
+      <c r="G59">
+        <v>0.02063596359728553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3085434185346161</v>
+        <v>0.2784137167905573</v>
       </c>
       <c r="C60">
-        <v>0.1098403616424465</v>
+        <v>0.1078163933294052</v>
       </c>
       <c r="D60">
-        <v>-0.1723953412695996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.267989210296053</v>
+      </c>
+      <c r="E60">
+        <v>-0.2369012402478446</v>
+      </c>
+      <c r="F60">
+        <v>0.07344296860784197</v>
+      </c>
+      <c r="G60">
+        <v>-0.03685224592330399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04430699665524356</v>
+        <v>0.04118397398392003</v>
       </c>
       <c r="C61">
-        <v>0.06320237556176586</v>
+        <v>0.0600247116680319</v>
       </c>
       <c r="D61">
-        <v>-0.009664148059314417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03838789305036941</v>
+      </c>
+      <c r="E61">
+        <v>0.04965838528941874</v>
+      </c>
+      <c r="F61">
+        <v>-0.06633695023704431</v>
+      </c>
+      <c r="G61">
+        <v>-0.05858293765018988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01656204186554792</v>
+        <v>0.01536027179446066</v>
       </c>
       <c r="C63">
-        <v>0.03348158294370029</v>
+        <v>0.03124809743192817</v>
       </c>
       <c r="D63">
-        <v>0.01800993173965294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01414399872947672</v>
+      </c>
+      <c r="E63">
+        <v>0.05993992857936386</v>
+      </c>
+      <c r="F63">
+        <v>-0.05029599081554301</v>
+      </c>
+      <c r="G63">
+        <v>-0.06695647364743131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05071143081069956</v>
+        <v>0.05620734004084758</v>
       </c>
       <c r="C64">
-        <v>0.04621521957303464</v>
+        <v>0.05654743405481812</v>
       </c>
       <c r="D64">
-        <v>0.0005988647143400277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.00257230350141537</v>
+      </c>
+      <c r="E64">
+        <v>0.0367540301759265</v>
+      </c>
+      <c r="F64">
+        <v>-0.07095362667692093</v>
+      </c>
+      <c r="G64">
+        <v>-0.05129720813631716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08204627789630012</v>
+        <v>0.06615196064555602</v>
       </c>
       <c r="C65">
-        <v>0.03025654180661698</v>
+        <v>0.02889223409474179</v>
       </c>
       <c r="D65">
-        <v>-0.05997752473219346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08544192334561368</v>
+      </c>
+      <c r="E65">
+        <v>0.05810110615297948</v>
+      </c>
+      <c r="F65">
+        <v>-0.009051925911917605</v>
+      </c>
+      <c r="G65">
+        <v>-0.01865976263395412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06314087935484536</v>
+        <v>0.05283001035142348</v>
       </c>
       <c r="C66">
-        <v>0.08622417306501053</v>
+        <v>0.0802407721156434</v>
       </c>
       <c r="D66">
-        <v>-0.03546682229670075</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07162570081110355</v>
+      </c>
+      <c r="E66">
+        <v>0.05593899341747832</v>
+      </c>
+      <c r="F66">
+        <v>-0.07919982584191708</v>
+      </c>
+      <c r="G66">
+        <v>-0.05740771851593623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05191086734592846</v>
+        <v>0.04502129435291258</v>
       </c>
       <c r="C67">
-        <v>0.03136237587061895</v>
+        <v>0.02839427231451816</v>
       </c>
       <c r="D67">
-        <v>0.02389658423246596</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0033252457429499</v>
+      </c>
+      <c r="E67">
+        <v>0.02637278418508978</v>
+      </c>
+      <c r="F67">
+        <v>-0.03733763436162318</v>
+      </c>
+      <c r="G67">
+        <v>-0.03044097299934564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1282220665758805</v>
+        <v>0.1507211446166973</v>
       </c>
       <c r="C68">
-        <v>-0.2800261023790396</v>
+        <v>-0.244178258987602</v>
       </c>
       <c r="D68">
-        <v>0.005615624828251578</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01560765640966321</v>
+      </c>
+      <c r="E68">
+        <v>0.03807740011141453</v>
+      </c>
+      <c r="F68">
+        <v>-0.007311273832917915</v>
+      </c>
+      <c r="G68">
+        <v>-0.03016075810775753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09152333450781974</v>
+        <v>0.08731448435983466</v>
       </c>
       <c r="C69">
-        <v>0.07172144878534559</v>
+        <v>0.08928940464799162</v>
       </c>
       <c r="D69">
-        <v>0.04452392909665208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01369339527518633</v>
+      </c>
+      <c r="E69">
+        <v>0.05401423007369561</v>
+      </c>
+      <c r="F69">
+        <v>-0.06834097343938518</v>
+      </c>
+      <c r="G69">
+        <v>-0.07089650509593799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1172470674909569</v>
+        <v>0.1434918909913808</v>
       </c>
       <c r="C71">
-        <v>-0.2543041946821644</v>
+        <v>-0.2407223133699068</v>
       </c>
       <c r="D71">
-        <v>-0.01494649807528129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0006328528906309703</v>
+      </c>
+      <c r="E71">
+        <v>0.05918351663926388</v>
+      </c>
+      <c r="F71">
+        <v>-0.02453049710309306</v>
+      </c>
+      <c r="G71">
+        <v>-0.05884813204876705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09267998200932318</v>
+        <v>0.100600215142669</v>
       </c>
       <c r="C72">
-        <v>0.05523034924633145</v>
+        <v>0.05749342598780442</v>
       </c>
       <c r="D72">
-        <v>-0.002552773894199511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02643015845410661</v>
+      </c>
+      <c r="E72">
+        <v>0.02712557221079803</v>
+      </c>
+      <c r="F72">
+        <v>-0.04235025572110016</v>
+      </c>
+      <c r="G72">
+        <v>-0.06434514675613578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4052493600258412</v>
+        <v>0.3427643708028452</v>
       </c>
       <c r="C73">
-        <v>0.04375160895913552</v>
+        <v>0.06789047530372604</v>
       </c>
       <c r="D73">
-        <v>-0.406494805908066</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5259005558826509</v>
+      </c>
+      <c r="E73">
+        <v>-0.4336156667413409</v>
+      </c>
+      <c r="F73">
+        <v>0.2279591444465772</v>
+      </c>
+      <c r="G73">
+        <v>-0.02438290753559637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1042743864872677</v>
+        <v>0.1093988196625064</v>
       </c>
       <c r="C74">
-        <v>0.09632382481588579</v>
+        <v>0.09546523054569726</v>
       </c>
       <c r="D74">
-        <v>0.03483404019205057</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04491092114696217</v>
+      </c>
+      <c r="E74">
+        <v>0.06051469843612821</v>
+      </c>
+      <c r="F74">
+        <v>0.002732103095011606</v>
+      </c>
+      <c r="G74">
+        <v>-0.06741373038268365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2528987538645895</v>
+        <v>0.2576770066390773</v>
       </c>
       <c r="C75">
-        <v>0.1032415333864507</v>
+        <v>0.1303979327870717</v>
       </c>
       <c r="D75">
-        <v>0.1254940771888039</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1493529846755117</v>
+      </c>
+      <c r="E75">
+        <v>0.04214296172718258</v>
+      </c>
+      <c r="F75">
+        <v>0.04456965571727439</v>
+      </c>
+      <c r="G75">
+        <v>-0.008612916448627281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.114259608818671</v>
+        <v>0.1283677012249876</v>
       </c>
       <c r="C76">
-        <v>0.08026821589379146</v>
+        <v>0.09266276083689055</v>
       </c>
       <c r="D76">
-        <v>0.06384705570264902</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07547902056842191</v>
+      </c>
+      <c r="E76">
+        <v>0.06720614316752681</v>
+      </c>
+      <c r="F76">
+        <v>-0.01847140303736921</v>
+      </c>
+      <c r="G76">
+        <v>-0.0555726037118055</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07761292562247338</v>
+        <v>0.06359155298851475</v>
       </c>
       <c r="C77">
-        <v>0.05157299421450095</v>
+        <v>0.06230695498133113</v>
       </c>
       <c r="D77">
-        <v>-0.04929402154881076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04959432482174023</v>
+      </c>
+      <c r="E77">
+        <v>0.1006318593581354</v>
+      </c>
+      <c r="F77">
+        <v>-0.1594720481545514</v>
+      </c>
+      <c r="G77">
+        <v>0.1080198688171837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.048706230013608</v>
+        <v>0.04549662485704328</v>
       </c>
       <c r="C78">
-        <v>0.04601480269407471</v>
+        <v>0.05593630630383379</v>
       </c>
       <c r="D78">
-        <v>-0.019536279849415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05697662857153218</v>
+      </c>
+      <c r="E78">
+        <v>0.05608434247760664</v>
+      </c>
+      <c r="F78">
+        <v>-0.07141272929765541</v>
+      </c>
+      <c r="G78">
+        <v>-0.05058638682619905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03009066586453265</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04557669619326764</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07541049061342482</v>
+      </c>
+      <c r="E79">
+        <v>0.05894487943706408</v>
+      </c>
+      <c r="F79">
+        <v>0.0136897312056133</v>
+      </c>
+      <c r="G79">
+        <v>-0.06059398207387456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03758743643326503</v>
+        <v>0.02960650540203195</v>
       </c>
       <c r="C80">
-        <v>0.04842142075289047</v>
+        <v>0.04996803351077398</v>
       </c>
       <c r="D80">
-        <v>-0.02492351486885026</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03556757043743288</v>
+      </c>
+      <c r="E80">
+        <v>0.01752620099486701</v>
+      </c>
+      <c r="F80">
+        <v>-0.04929170954923319</v>
+      </c>
+      <c r="G80">
+        <v>0.02240649180924823</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1389952029972735</v>
+        <v>0.1395243893009195</v>
       </c>
       <c r="C81">
-        <v>0.07535233869033317</v>
+        <v>0.09345959303770472</v>
       </c>
       <c r="D81">
-        <v>0.09057182902748916</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1192779574091479</v>
+      </c>
+      <c r="E81">
+        <v>0.06753922533014997</v>
+      </c>
+      <c r="F81">
+        <v>0.028263733162372</v>
+      </c>
+      <c r="G81">
+        <v>-0.02011736406814353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1774560268865798</v>
+        <v>0.2149382482710215</v>
       </c>
       <c r="C82">
-        <v>0.09018071250508833</v>
+        <v>0.1541672956974065</v>
       </c>
       <c r="D82">
-        <v>0.1826118635026247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2454585235989251</v>
+      </c>
+      <c r="E82">
+        <v>-0.02380196010314389</v>
+      </c>
+      <c r="F82">
+        <v>-0.05039309262958273</v>
+      </c>
+      <c r="G82">
+        <v>-0.04925329802036783</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03940559878029191</v>
+        <v>0.02708425973439335</v>
       </c>
       <c r="C83">
-        <v>0.03167733391731638</v>
+        <v>0.04359211325157911</v>
       </c>
       <c r="D83">
-        <v>-0.0351246035221706</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02827958911467136</v>
+      </c>
+      <c r="E83">
+        <v>0.02693823072374144</v>
+      </c>
+      <c r="F83">
+        <v>-0.04818915494887394</v>
+      </c>
+      <c r="G83">
+        <v>0.00192059460333387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004216919515548229</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000126393854083513</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001960767342383067</v>
+      </c>
+      <c r="E84">
+        <v>0.00216740781425655</v>
+      </c>
+      <c r="F84">
+        <v>0.0006554776486815368</v>
+      </c>
+      <c r="G84">
+        <v>-0.002037458329171652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2235262300339676</v>
+        <v>0.2059576550307762</v>
       </c>
       <c r="C85">
-        <v>0.09536276203858242</v>
+        <v>0.1124836426137071</v>
       </c>
       <c r="D85">
-        <v>0.1497595580632781</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1138500786193841</v>
+      </c>
+      <c r="E85">
+        <v>-0.02453841064252043</v>
+      </c>
+      <c r="F85">
+        <v>0.09621803136769842</v>
+      </c>
+      <c r="G85">
+        <v>-0.05275873610089224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007802208167514422</v>
+        <v>0.01001232761404858</v>
       </c>
       <c r="C86">
-        <v>0.02613396500099806</v>
+        <v>0.01917339557229414</v>
       </c>
       <c r="D86">
-        <v>-0.04253357916232543</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05587456952536163</v>
+      </c>
+      <c r="E86">
+        <v>0.07702108221724067</v>
+      </c>
+      <c r="F86">
+        <v>-0.1091395517019885</v>
+      </c>
+      <c r="G86">
+        <v>-0.06005345884150185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02433052958881808</v>
+        <v>0.02471291768786669</v>
       </c>
       <c r="C87">
-        <v>0.004030327808784036</v>
+        <v>0.01182281536104198</v>
       </c>
       <c r="D87">
-        <v>-0.08047430919492118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07647517751613411</v>
+      </c>
+      <c r="E87">
+        <v>0.128823276325959</v>
+      </c>
+      <c r="F87">
+        <v>-0.07993389070803453</v>
+      </c>
+      <c r="G87">
+        <v>-0.001518400551966215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1068258110235051</v>
+        <v>0.09241819168364214</v>
       </c>
       <c r="C88">
-        <v>0.07261815952179071</v>
+        <v>0.06197823795219028</v>
       </c>
       <c r="D88">
-        <v>0.02886586237493364</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003344200810671246</v>
+      </c>
+      <c r="E88">
+        <v>0.04980083867852492</v>
+      </c>
+      <c r="F88">
+        <v>-0.07395895987770307</v>
+      </c>
+      <c r="G88">
+        <v>-0.02508251651831299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1842724172448442</v>
+        <v>0.2196993515351543</v>
       </c>
       <c r="C89">
-        <v>-0.3761236407039394</v>
+        <v>-0.3806893416291988</v>
       </c>
       <c r="D89">
-        <v>0.03065674730197347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02756830431337475</v>
+      </c>
+      <c r="E89">
+        <v>0.0677579111875916</v>
+      </c>
+      <c r="F89">
+        <v>-0.09689256262924049</v>
+      </c>
+      <c r="G89">
+        <v>0.02476339242125679</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1766793117895527</v>
+        <v>0.1992873729333083</v>
       </c>
       <c r="C90">
-        <v>-0.3344481314097191</v>
+        <v>-0.3105829895414647</v>
       </c>
       <c r="D90">
-        <v>0.03662378473747404</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02695503788671763</v>
+      </c>
+      <c r="E90">
+        <v>0.06586386774055068</v>
+      </c>
+      <c r="F90">
+        <v>-0.03642872526646302</v>
+      </c>
+      <c r="G90">
+        <v>-0.008046320397572609</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1895274955154504</v>
+        <v>0.1870696018592471</v>
       </c>
       <c r="C91">
-        <v>0.1279126884109762</v>
+        <v>0.1435200998194259</v>
       </c>
       <c r="D91">
-        <v>0.1157408291027681</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.126862170948503</v>
+      </c>
+      <c r="E91">
+        <v>0.04604588147415428</v>
+      </c>
+      <c r="F91">
+        <v>0.01090969110380781</v>
+      </c>
+      <c r="G91">
+        <v>-0.02486113451228161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1608987766936792</v>
+        <v>0.1804958345628772</v>
       </c>
       <c r="C92">
-        <v>-0.2864854845832644</v>
+        <v>-0.2911185508106662</v>
       </c>
       <c r="D92">
-        <v>0.03093236772568743</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02930025411495218</v>
+      </c>
+      <c r="E92">
+        <v>0.0691938195332798</v>
+      </c>
+      <c r="F92">
+        <v>-0.07236557500621459</v>
+      </c>
+      <c r="G92">
+        <v>-0.01747812563829989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1989980743367354</v>
+        <v>0.221664749334963</v>
       </c>
       <c r="C93">
-        <v>-0.3388530974937184</v>
+        <v>-0.3200136715667637</v>
       </c>
       <c r="D93">
-        <v>0.03640947917804582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02163403494914841</v>
+      </c>
+      <c r="E93">
+        <v>0.04205200195974165</v>
+      </c>
+      <c r="F93">
+        <v>-0.01137491050761487</v>
+      </c>
+      <c r="G93">
+        <v>-0.03886549385442007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3337423744667311</v>
+        <v>0.3379448094361424</v>
       </c>
       <c r="C94">
-        <v>0.1523738294630199</v>
+        <v>0.1881670454706737</v>
       </c>
       <c r="D94">
-        <v>0.3725639690589165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4333660179296756</v>
+      </c>
+      <c r="E94">
+        <v>-0.008370251446138422</v>
+      </c>
+      <c r="F94">
+        <v>0.232992096492754</v>
+      </c>
+      <c r="G94">
+        <v>0.4269313872712354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1162380423367317</v>
+        <v>0.08618146665376342</v>
       </c>
       <c r="C95">
-        <v>0.0672165719704423</v>
+        <v>0.06209302920476806</v>
       </c>
       <c r="D95">
-        <v>-0.1656825796238216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1843058331455474</v>
+      </c>
+      <c r="E95">
+        <v>-0.08600607459982912</v>
+      </c>
+      <c r="F95">
+        <v>-0.5907382208041927</v>
+      </c>
+      <c r="G95">
+        <v>0.6888028659683156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1951265208644412</v>
+        <v>0.1873654657433849</v>
       </c>
       <c r="C98">
-        <v>0.01879928396970522</v>
+        <v>0.04517003922409024</v>
       </c>
       <c r="D98">
-        <v>-0.1415489508464313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2022528899865318</v>
+      </c>
+      <c r="E98">
+        <v>-0.1307704531779752</v>
+      </c>
+      <c r="F98">
+        <v>0.06504695051647683</v>
+      </c>
+      <c r="G98">
+        <v>-0.0823091785975683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006460150683206112</v>
+        <v>0.005095210291995799</v>
       </c>
       <c r="C101">
-        <v>0.0344062381255621</v>
+        <v>0.02947202789311453</v>
       </c>
       <c r="D101">
-        <v>0.0160012342219786</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01522181164164962</v>
+      </c>
+      <c r="E101">
+        <v>0.04827832530183634</v>
+      </c>
+      <c r="F101">
+        <v>-0.08122050545349213</v>
+      </c>
+      <c r="G101">
+        <v>-0.0654436830386728</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1256475880270047</v>
+        <v>0.1275403994091127</v>
       </c>
       <c r="C102">
-        <v>0.06744882015957925</v>
+        <v>0.09952031928442123</v>
       </c>
       <c r="D102">
-        <v>0.04132758578412965</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05179183636021789</v>
+      </c>
+      <c r="E102">
+        <v>-0.01194161748595923</v>
+      </c>
+      <c r="F102">
+        <v>-0.01952235130441011</v>
+      </c>
+      <c r="G102">
+        <v>0.000304002308117627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
